--- a/backend/src/excel_handler/files/HAVA.xlsx
+++ b/backend/src/excel_handler/files/HAVA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>16-12-2022</t>
+          <t>23-12-2022</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17438.86</v>
+        <v>25916.49</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8719.43</v>
+        <v>6479.12</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4120.33</v>
+        <v>3873.37</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,27 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13318.53</v>
+        <v>13650.96</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Delta acciones</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>6387.75</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Delta Select</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2004.41</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/HAVA.xlsx
+++ b/backend/src/excel_handler/files/HAVA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,28 +436,39 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>23-12-2022</t>
+          <t>30-12-2022</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>25916.49</v>
+        <v>1703.76</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1978.7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Delta acciones</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6479.12</v>
+        <v>6355.95</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6358.49</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +478,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3873.37</v>
+        <v>3965.28</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4085.57</v>
       </c>
     </row>
     <row r="5">
@@ -477,27 +491,36 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13650.96</v>
+        <v>13427.01</v>
+      </c>
+      <c r="C5" t="n">
+        <v>13668.89</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Delta acciones</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6387.75</v>
+        <v>6363</v>
+      </c>
+      <c r="C6" t="n">
+        <v>6522.91</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2004.41</v>
+        <v>25452</v>
+      </c>
+      <c r="C7" t="n">
+        <v>26091.65</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/HAVA.xlsx
+++ b/backend/src/excel_handler/files/HAVA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,11 +436,6 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>30-12-2022</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>06-01-2023</t>
         </is>
       </c>
@@ -448,79 +443,61 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1703.76</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1978.7</v>
+        <v>26091.65</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Delta acciones</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6355.95</v>
-      </c>
-      <c r="C3" t="n">
-        <v>6358.49</v>
+        <v>6522.91</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Delta Acciones</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3965.28</v>
-      </c>
-      <c r="C4" t="n">
-        <v>4085.57</v>
+        <v>6358.49</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13427.01</v>
-      </c>
-      <c r="C5" t="n">
-        <v>13668.89</v>
+        <v>1978.7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6363</v>
-      </c>
-      <c r="C6" t="n">
-        <v>6522.91</v>
+        <v>4085.57</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25452</v>
-      </c>
-      <c r="C7" t="n">
-        <v>26091.65</v>
+        <v>13668.89</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/HAVA.xlsx
+++ b/backend/src/excel_handler/files/HAVA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,65 +439,82 @@
           <t>06-01-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Delta Acciones</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>26091.65</v>
-      </c>
+        <v>6358.49</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6522.91</v>
-      </c>
+        <v>1978.7</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Delta Acciones</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6358.49</v>
-      </c>
+        <v>4085.57</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1978.7</v>
+        <v>13668.89</v>
+      </c>
+      <c r="C5" t="n">
+        <v>13210.12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4085.57</v>
+        <v>6522.91</v>
+      </c>
+      <c r="C6" t="n">
+        <v>13210.12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13668.89</v>
+        <v>26091.65</v>
+      </c>
+      <c r="C7" t="n">
+        <v>13210.12</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/HAVA.xlsx
+++ b/backend/src/excel_handler/files/HAVA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>13-01-2023</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -455,6 +460,9 @@
         <v>6358.49</v>
       </c>
       <c r="C2" t="inlineStr"/>
+      <c r="D2" t="n">
+        <v>6336.76</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -466,6 +474,9 @@
         <v>1978.7</v>
       </c>
       <c r="C3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>1194.31</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -477,6 +488,9 @@
         <v>4085.57</v>
       </c>
       <c r="C4" t="inlineStr"/>
+      <c r="D4" t="n">
+        <v>4280.62</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -490,6 +504,9 @@
       <c r="C5" t="n">
         <v>13210.12</v>
       </c>
+      <c r="D5" t="n">
+        <v>13162.31</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -503,6 +520,9 @@
       <c r="C6" t="n">
         <v>13210.12</v>
       </c>
+      <c r="D6" t="n">
+        <v>6243.5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -515,6 +535,9 @@
       </c>
       <c r="C7" t="n">
         <v>13210.12</v>
+      </c>
+      <c r="D7" t="n">
+        <v>24974</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/HAVA.xlsx
+++ b/backend/src/excel_handler/files/HAVA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>20-01-2023</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -463,6 +468,9 @@
       <c r="D2" t="n">
         <v>6336.76</v>
       </c>
+      <c r="E2" t="n">
+        <v>6410.94</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -477,6 +485,9 @@
       <c r="D3" t="n">
         <v>1194.31</v>
       </c>
+      <c r="E3" t="n">
+        <v>1239.57</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -491,6 +502,9 @@
       <c r="D4" t="n">
         <v>4280.62</v>
       </c>
+      <c r="E4" t="n">
+        <v>3709.71</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -507,6 +521,9 @@
       <c r="D5" t="n">
         <v>13162.31</v>
       </c>
+      <c r="E5" t="n">
+        <v>13017.12</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -523,6 +540,9 @@
       <c r="D6" t="n">
         <v>6243.5</v>
       </c>
+      <c r="E6" t="n">
+        <v>6094.34</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -538,6 +558,9 @@
       </c>
       <c r="D7" t="n">
         <v>24974</v>
+      </c>
+      <c r="E7" t="n">
+        <v>24377.34</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/HAVA.xlsx
+++ b/backend/src/excel_handler/files/HAVA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>27-01-2023</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -471,6 +476,9 @@
       <c r="E2" t="n">
         <v>6410.94</v>
       </c>
+      <c r="F2" t="n">
+        <v>6361.48</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -488,6 +496,9 @@
       <c r="E3" t="n">
         <v>1239.57</v>
       </c>
+      <c r="F3" t="n">
+        <v>1087.73</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -505,6 +516,9 @@
       <c r="E4" t="n">
         <v>3709.71</v>
       </c>
+      <c r="F4" t="n">
+        <v>4355.11</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -524,6 +538,9 @@
       <c r="E5" t="n">
         <v>13017.12</v>
       </c>
+      <c r="F5" t="n">
+        <v>13173.01</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -543,6 +560,9 @@
       <c r="E6" t="n">
         <v>6094.34</v>
       </c>
+      <c r="F6" t="n">
+        <v>6244.33</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -561,6 +581,9 @@
       </c>
       <c r="E7" t="n">
         <v>24377.34</v>
+      </c>
+      <c r="F7" t="n">
+        <v>24977.33</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/HAVA.xlsx
+++ b/backend/src/excel_handler/files/HAVA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>03-02-2023</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -479,6 +484,9 @@
       <c r="F2" t="n">
         <v>6361.48</v>
       </c>
+      <c r="G2" t="n">
+        <v>6449.71</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -499,6 +507,9 @@
       <c r="F3" t="n">
         <v>1087.73</v>
       </c>
+      <c r="G3" t="n">
+        <v>1123.99</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -519,6 +530,9 @@
       <c r="F4" t="n">
         <v>4355.11</v>
       </c>
+      <c r="G4" t="n">
+        <v>4539.56</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -541,6 +555,9 @@
       <c r="F5" t="n">
         <v>13173.01</v>
       </c>
+      <c r="G5" t="n">
+        <v>13216.41</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -563,6 +580,9 @@
       <c r="F6" t="n">
         <v>6244.33</v>
       </c>
+      <c r="G6" t="n">
+        <v>6332.42</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -584,6 +604,9 @@
       </c>
       <c r="F7" t="n">
         <v>24977.33</v>
+      </c>
+      <c r="G7" t="n">
+        <v>25329.67</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/HAVA.xlsx
+++ b/backend/src/excel_handler/files/HAVA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>10-02-2023</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -487,6 +492,9 @@
       <c r="G2" t="n">
         <v>6449.71</v>
       </c>
+      <c r="H2" t="n">
+        <v>6417.96</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -510,6 +518,9 @@
       <c r="G3" t="n">
         <v>1123.99</v>
       </c>
+      <c r="H3" t="n">
+        <v>958.99</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -533,6 +544,9 @@
       <c r="G4" t="n">
         <v>4539.56</v>
       </c>
+      <c r="H4" t="n">
+        <v>3904.67</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -558,6 +572,9 @@
       <c r="G5" t="n">
         <v>13216.41</v>
       </c>
+      <c r="H5" t="n">
+        <v>13152.26</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -583,6 +600,9 @@
       <c r="G6" t="n">
         <v>6332.42</v>
       </c>
+      <c r="H6" t="n">
+        <v>6108.47</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -607,6 +627,9 @@
       </c>
       <c r="G7" t="n">
         <v>25329.67</v>
+      </c>
+      <c r="H7" t="n">
+        <v>24433.88</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/HAVA.xlsx
+++ b/backend/src/excel_handler/files/HAVA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>17-02-2023</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -495,6 +500,9 @@
       <c r="H2" t="n">
         <v>6417.96</v>
       </c>
+      <c r="I2" t="n">
+        <v>6374.03</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -521,6 +529,9 @@
       <c r="H3" t="n">
         <v>958.99</v>
       </c>
+      <c r="I3" t="n">
+        <v>956.87</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -547,6 +558,9 @@
       <c r="H4" t="n">
         <v>3904.67</v>
       </c>
+      <c r="I4" t="n">
+        <v>3860.05</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -575,6 +589,9 @@
       <c r="H5" t="n">
         <v>13152.26</v>
       </c>
+      <c r="I5" t="n">
+        <v>13315.37</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -603,6 +620,9 @@
       <c r="H6" t="n">
         <v>6108.47</v>
       </c>
+      <c r="I6" t="n">
+        <v>6126.58</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -630,6 +650,9 @@
       </c>
       <c r="H7" t="n">
         <v>24433.88</v>
+      </c>
+      <c r="I7" t="n">
+        <v>24506.32</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/HAVA.xlsx
+++ b/backend/src/excel_handler/files/HAVA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,11 @@
           <t>24-02-2023</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -503,6 +508,9 @@
       <c r="I2" t="n">
         <v>6374.03</v>
       </c>
+      <c r="J2" t="n">
+        <v>6263.1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -532,6 +540,9 @@
       <c r="I3" t="n">
         <v>956.87</v>
       </c>
+      <c r="J3" t="n">
+        <v>973.53</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -561,6 +572,9 @@
       <c r="I4" t="n">
         <v>3860.05</v>
       </c>
+      <c r="J4" t="n">
+        <v>3835.64</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -592,6 +606,9 @@
       <c r="I5" t="n">
         <v>13315.37</v>
       </c>
+      <c r="J5" t="n">
+        <v>13641.17</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -623,6 +640,9 @@
       <c r="I6" t="n">
         <v>6126.58</v>
       </c>
+      <c r="J6" t="n">
+        <v>6178.36</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -653,6 +673,9 @@
       </c>
       <c r="I7" t="n">
         <v>24506.32</v>
+      </c>
+      <c r="J7" t="n">
+        <v>24713.44</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/HAVA.xlsx
+++ b/backend/src/excel_handler/files/HAVA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,11 @@
           <t>03-03-2023</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -511,6 +516,9 @@
       <c r="J2" t="n">
         <v>6263.1</v>
       </c>
+      <c r="K2" t="n">
+        <v>6338.65</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -543,6 +551,9 @@
       <c r="J3" t="n">
         <v>973.53</v>
       </c>
+      <c r="K3" t="n">
+        <v>918.6900000000001</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -575,6 +586,9 @@
       <c r="J4" t="n">
         <v>3835.64</v>
       </c>
+      <c r="K4" t="n">
+        <v>4479.59</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -609,6 +623,9 @@
       <c r="J5" t="n">
         <v>13641.17</v>
       </c>
+      <c r="K5" t="n">
+        <v>13550.9</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -643,6 +660,9 @@
       <c r="J6" t="n">
         <v>6178.36</v>
       </c>
+      <c r="K6" t="n">
+        <v>6321.96</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -676,6 +696,9 @@
       </c>
       <c r="J7" t="n">
         <v>24713.44</v>
+      </c>
+      <c r="K7" t="n">
+        <v>25287.83</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/HAVA.xlsx
+++ b/backend/src/excel_handler/files/HAVA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>10-03-2023</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -519,6 +524,9 @@
       <c r="K2" t="n">
         <v>6338.65</v>
       </c>
+      <c r="L2" t="n">
+        <v>6292.21</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -554,6 +562,9 @@
       <c r="K3" t="n">
         <v>918.6900000000001</v>
       </c>
+      <c r="L3" t="n">
+        <v>964.09</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -589,6 +600,9 @@
       <c r="K4" t="n">
         <v>4479.59</v>
       </c>
+      <c r="L4" t="n">
+        <v>4531.72</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -626,6 +640,9 @@
       <c r="K5" t="n">
         <v>13550.9</v>
       </c>
+      <c r="L5" t="n">
+        <v>13162.96</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -663,6 +680,9 @@
       <c r="K6" t="n">
         <v>6321.96</v>
       </c>
+      <c r="L6" t="n">
+        <v>6237.74</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -699,6 +719,9 @@
       </c>
       <c r="K7" t="n">
         <v>25287.83</v>
+      </c>
+      <c r="L7" t="n">
+        <v>24950.98</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/HAVA.xlsx
+++ b/backend/src/excel_handler/files/HAVA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,11 @@
           <t>17-03-2023</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>23-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -527,6 +532,9 @@
       <c r="L2" t="n">
         <v>6292.21</v>
       </c>
+      <c r="M2" t="n">
+        <v>6369.51</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -565,6 +573,9 @@
       <c r="L3" t="n">
         <v>964.09</v>
       </c>
+      <c r="M3" t="n">
+        <v>850.55</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -603,6 +614,9 @@
       <c r="L4" t="n">
         <v>4531.72</v>
       </c>
+      <c r="M4" t="n">
+        <v>3947</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -643,6 +657,9 @@
       <c r="L5" t="n">
         <v>13162.96</v>
       </c>
+      <c r="M5" t="n">
+        <v>13499.45</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -683,6 +700,9 @@
       <c r="L6" t="n">
         <v>6237.74</v>
       </c>
+      <c r="M6" t="n">
+        <v>6166.63</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -722,6 +742,9 @@
       </c>
       <c r="L7" t="n">
         <v>24950.98</v>
+      </c>
+      <c r="M7" t="n">
+        <v>24666.51</v>
       </c>
     </row>
   </sheetData>
